--- a/biology/Zoologie/Hirondelle_d'Angola/Hirondelle_d'Angola.xlsx
+++ b/biology/Zoologie/Hirondelle_d'Angola/Hirondelle_d'Angola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_d%27Angola</t>
+          <t>Hirondelle_d'Angola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirundo angolensis
 L'Hirondelle de lʼAngola (Hirundo angolensis) est une espèce de passereaux de la famille des Hirundinidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_d%27Angola</t>
+          <t>Hirondelle_d'Angola</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend sur le Gabon, la République du Congo, la République démocratique du Congo, l'Angola, le Kenya, l'Ouganda, le Rwanda, le Burundi, la Tanzanie, la Zambie, le Malawi, l'Afrique du Sud et la Namibie. Elle est rare au Botswana.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hirondelle_d%27Angola</t>
+          <t>Hirondelle_d'Angola</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce monotypique (non subdivisée en sous-espèces).
 </t>
